--- a/modelos/OBAOLE4423099/OBAOLE4423099_Sell in_metricas.xlsx
+++ b/modelos/OBAOLE4423099/OBAOLE4423099_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,13 +476,13 @@
         <v>44929</v>
       </c>
       <c r="B2" t="n">
-        <v>55.19355194464282</v>
+        <v>57.14982397193785</v>
       </c>
       <c r="C2" t="n">
-        <v>-121.9457832498134</v>
+        <v>-136.2199747789341</v>
       </c>
       <c r="D2" t="n">
-        <v>239.4178545385332</v>
+        <v>233.2246212810558</v>
       </c>
       <c r="E2" t="n">
         <v>144</v>
@@ -496,13 +496,13 @@
         <v>44936</v>
       </c>
       <c r="B3" t="n">
-        <v>84.36212920341542</v>
+        <v>84.15556862751019</v>
       </c>
       <c r="C3" t="n">
-        <v>-111.5046414867937</v>
+        <v>-95.00043923746205</v>
       </c>
       <c r="D3" t="n">
-        <v>252.5618052944449</v>
+        <v>255.8657008740085</v>
       </c>
       <c r="E3" t="n">
         <v>324</v>
@@ -513,221 +513,181 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
+        <v>44950</v>
+      </c>
+      <c r="B4" t="n">
+        <v>153.2371055249818</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-26.40695235571216</v>
+      </c>
+      <c r="D4" t="n">
+        <v>341.3096483668707</v>
+      </c>
+      <c r="E4" t="n">
+        <v>276</v>
+      </c>
+      <c r="F4" s="2" t="n">
         <v>44943</v>
-      </c>
-      <c r="B4" t="n">
-        <v>155.4128912201853</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-39.66518610594946</v>
-      </c>
-      <c r="D4" t="n">
-        <v>349.2239397696191</v>
-      </c>
-      <c r="E4" t="n">
-        <v>744</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>44936</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44950</v>
+        <v>45009</v>
       </c>
       <c r="B5" t="n">
-        <v>301.9020628060508</v>
+        <v>266.4123706087406</v>
       </c>
       <c r="C5" t="n">
-        <v>76.45822718814902</v>
+        <v>91.60482288710791</v>
       </c>
       <c r="D5" t="n">
-        <v>517.8397962845412</v>
+        <v>449.2692153129406</v>
       </c>
       <c r="E5" t="n">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44943</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45009</v>
+        <v>45020</v>
       </c>
       <c r="B6" t="n">
-        <v>418.1214011103975</v>
+        <v>121.5957298301769</v>
       </c>
       <c r="C6" t="n">
-        <v>184.7206128396862</v>
+        <v>-58.84096597629317</v>
       </c>
       <c r="D6" t="n">
-        <v>640.3500810327322</v>
+        <v>308.7244347585477</v>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45006</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45013</v>
+        <v>45027</v>
       </c>
       <c r="B7" t="n">
-        <v>329.1120647838275</v>
+        <v>105.3042745151068</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6138679534163</v>
+        <v>-79.19298121045513</v>
       </c>
       <c r="D7" t="n">
-        <v>542.0368625283286</v>
+        <v>286.9322690751337</v>
       </c>
       <c r="E7" t="n">
-        <v>744</v>
+        <v>240</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45006</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45020</v>
+        <v>45034</v>
       </c>
       <c r="B8" t="n">
-        <v>349.5372871228413</v>
+        <v>131.1596952804575</v>
       </c>
       <c r="C8" t="n">
-        <v>113.7470000124453</v>
+        <v>-39.70782817782413</v>
       </c>
       <c r="D8" t="n">
-        <v>593.3951516660361</v>
+        <v>315.213319225489</v>
       </c>
       <c r="E8" t="n">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45013</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45027</v>
+        <v>45040</v>
       </c>
       <c r="B9" t="n">
-        <v>306.5694450149813</v>
+        <v>-61.01424763209661</v>
       </c>
       <c r="C9" t="n">
-        <v>54.19580181359701</v>
+        <v>-227.7967523469972</v>
       </c>
       <c r="D9" t="n">
-        <v>550.4663872945895</v>
+        <v>111.5876646170517</v>
       </c>
       <c r="E9" t="n">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45020</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45034</v>
+        <v>45048</v>
       </c>
       <c r="B10" t="n">
-        <v>297.6799088551196</v>
+        <v>128.0694266910599</v>
       </c>
       <c r="C10" t="n">
-        <v>66.28204940571855</v>
+        <v>-49.17140695574307</v>
       </c>
       <c r="D10" t="n">
-        <v>536.3351413610339</v>
+        <v>303.5588143670537</v>
       </c>
       <c r="E10" t="n">
-        <v>132</v>
+        <v>492</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45027</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45040</v>
+        <v>45055</v>
       </c>
       <c r="B11" t="n">
-        <v>50.29892727627416</v>
+        <v>189.1021987723528</v>
       </c>
       <c r="C11" t="n">
-        <v>-196.1266981034602</v>
+        <v>6.857244483362139</v>
       </c>
       <c r="D11" t="n">
-        <v>291.0838321703793</v>
+        <v>386.7843223190927</v>
       </c>
       <c r="E11" t="n">
-        <v>204</v>
+        <v>132</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45034</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45048</v>
+        <v>45062</v>
       </c>
       <c r="B12" t="n">
-        <v>274.8276534759736</v>
+        <v>180.1468036988785</v>
       </c>
       <c r="C12" t="n">
-        <v>27.74931191883176</v>
+        <v>-0.9522704576077454</v>
       </c>
       <c r="D12" t="n">
-        <v>523.5659058372448</v>
+        <v>354.3047897803948</v>
       </c>
       <c r="E12" t="n">
-        <v>492</v>
+        <v>156</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45041</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45055</v>
-      </c>
-      <c r="B13" t="n">
-        <v>308.785819501335</v>
-      </c>
-      <c r="C13" t="n">
-        <v>62.359063121007</v>
-      </c>
-      <c r="D13" t="n">
-        <v>560.0462259196771</v>
-      </c>
-      <c r="E13" t="n">
-        <v>132</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>45048</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="B14" t="n">
-        <v>288.344688997267</v>
-      </c>
-      <c r="C14" t="n">
-        <v>31.5971400166771</v>
-      </c>
-      <c r="D14" t="n">
-        <v>506.4487411945087</v>
-      </c>
-      <c r="E14" t="n">
-        <v>156</v>
-      </c>
-      <c r="F14" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -797,22 +757,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>164934.5924398724</v>
+        <v>64725.65431875919</v>
       </c>
       <c r="C2" t="n">
-        <v>406.1214011103975</v>
+        <v>254.4123706087406</v>
       </c>
       <c r="D2" t="n">
-        <v>406.1214011103975</v>
+        <v>254.4123706087406</v>
       </c>
       <c r="E2" t="n">
-        <v>33.84345009253312</v>
+        <v>21.20103088406172</v>
       </c>
       <c r="F2" t="n">
-        <v>33.84345009253312</v>
+        <v>21.20103088406172</v>
       </c>
       <c r="G2" t="n">
-        <v>1.888403599829993</v>
+        <v>1.827593867704049</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -823,25 +783,25 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>23624.01975642406</v>
+        <v>70232.55144800623</v>
       </c>
       <c r="C3" t="n">
-        <v>153.7010727237258</v>
+        <v>265.0142476320966</v>
       </c>
       <c r="D3" t="n">
-        <v>153.7010727237258</v>
+        <v>265.0142476320966</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7534366309986561</v>
+        <v>1.299089449176944</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7534366309986561</v>
+        <v>1.299089449176944</v>
       </c>
       <c r="G3" t="n">
-        <v>1.20882202980544</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -849,25 +809,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>71170.37631283212</v>
+        <v>26220.58972180591</v>
       </c>
       <c r="C4" t="n">
-        <v>266.7777657767456</v>
+        <v>161.9277299347024</v>
       </c>
       <c r="D4" t="n">
-        <v>216.5373565154136</v>
+        <v>118.640981965595</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9201525580975378</v>
+        <v>0.4589357956644031</v>
       </c>
       <c r="F4" t="n">
-        <v>0.73962305801415</v>
+        <v>0.4475682122640106</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7673648406450964</v>
+        <v>0.6040266623303516</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6363636363636367</v>
+        <v>0.7777777777777777</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAOLE4423099/OBAOLE4423099_Sell in_metricas.xlsx
+++ b/modelos/OBAOLE4423099/OBAOLE4423099_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44929</v>
       </c>
       <c r="B2" t="n">
-        <v>57.14982397193785</v>
+        <v>57.14982397220689</v>
       </c>
       <c r="C2" t="n">
-        <v>-136.2199747789341</v>
+        <v>-123.3274065436729</v>
       </c>
       <c r="D2" t="n">
-        <v>233.2246212810558</v>
+        <v>236.4910047009122</v>
       </c>
       <c r="E2" t="n">
         <v>144</v>
@@ -496,13 +496,13 @@
         <v>44936</v>
       </c>
       <c r="B3" t="n">
-        <v>84.15556862751019</v>
+        <v>84.15556722366418</v>
       </c>
       <c r="C3" t="n">
-        <v>-95.00043923746205</v>
+        <v>-83.02585014227573</v>
       </c>
       <c r="D3" t="n">
-        <v>255.8657008740085</v>
+        <v>257.7982833050902</v>
       </c>
       <c r="E3" t="n">
         <v>324</v>
@@ -516,13 +516,13 @@
         <v>44950</v>
       </c>
       <c r="B4" t="n">
-        <v>153.2371055249818</v>
+        <v>153.2371055249814</v>
       </c>
       <c r="C4" t="n">
-        <v>-26.40695235571216</v>
+        <v>-36.60400416119043</v>
       </c>
       <c r="D4" t="n">
-        <v>341.3096483668707</v>
+        <v>339.837219077126</v>
       </c>
       <c r="E4" t="n">
         <v>276</v>
@@ -536,13 +536,13 @@
         <v>45009</v>
       </c>
       <c r="B5" t="n">
-        <v>266.4123706087406</v>
+        <v>266.4123706089414</v>
       </c>
       <c r="C5" t="n">
-        <v>91.60482288710791</v>
+        <v>95.41669007390583</v>
       </c>
       <c r="D5" t="n">
-        <v>449.2692153129406</v>
+        <v>444.855736338369</v>
       </c>
       <c r="E5" t="n">
         <v>12</v>
@@ -556,13 +556,13 @@
         <v>45020</v>
       </c>
       <c r="B6" t="n">
-        <v>121.5957298301769</v>
+        <v>121.5957298302757</v>
       </c>
       <c r="C6" t="n">
-        <v>-58.84096597629317</v>
+        <v>-52.8787182917423</v>
       </c>
       <c r="D6" t="n">
-        <v>308.7244347585477</v>
+        <v>297.1728201355234</v>
       </c>
       <c r="E6" t="n">
         <v>84</v>
@@ -576,13 +576,13 @@
         <v>45027</v>
       </c>
       <c r="B7" t="n">
-        <v>105.3042745151068</v>
+        <v>105.3042745151044</v>
       </c>
       <c r="C7" t="n">
-        <v>-79.19298121045513</v>
+        <v>-81.14118024634415</v>
       </c>
       <c r="D7" t="n">
-        <v>286.9322690751337</v>
+        <v>290.0272787730559</v>
       </c>
       <c r="E7" t="n">
         <v>240</v>
@@ -596,13 +596,13 @@
         <v>45034</v>
       </c>
       <c r="B8" t="n">
-        <v>131.1596952804575</v>
+        <v>131.1596952797788</v>
       </c>
       <c r="C8" t="n">
-        <v>-39.70782817782413</v>
+        <v>-41.48372864185477</v>
       </c>
       <c r="D8" t="n">
-        <v>315.213319225489</v>
+        <v>303.1986204379137</v>
       </c>
       <c r="E8" t="n">
         <v>132</v>
@@ -616,13 +616,13 @@
         <v>45040</v>
       </c>
       <c r="B9" t="n">
-        <v>-61.01424763209661</v>
+        <v>-61.01424763207202</v>
       </c>
       <c r="C9" t="n">
-        <v>-227.7967523469972</v>
+        <v>-228.1801076214142</v>
       </c>
       <c r="D9" t="n">
-        <v>111.5876646170517</v>
+        <v>112.77203006933</v>
       </c>
       <c r="E9" t="n">
         <v>204</v>
@@ -636,13 +636,13 @@
         <v>45048</v>
       </c>
       <c r="B10" t="n">
-        <v>128.0694266910599</v>
+        <v>128.0694266912078</v>
       </c>
       <c r="C10" t="n">
-        <v>-49.17140695574307</v>
+        <v>-41.24162751216043</v>
       </c>
       <c r="D10" t="n">
-        <v>303.5588143670537</v>
+        <v>299.1481655424417</v>
       </c>
       <c r="E10" t="n">
         <v>492</v>
@@ -656,13 +656,13 @@
         <v>45055</v>
       </c>
       <c r="B11" t="n">
-        <v>189.1021987723528</v>
+        <v>189.1021987723613</v>
       </c>
       <c r="C11" t="n">
-        <v>6.857244483362139</v>
+        <v>11.01817026473636</v>
       </c>
       <c r="D11" t="n">
-        <v>386.7843223190927</v>
+        <v>376.1672388540142</v>
       </c>
       <c r="E11" t="n">
         <v>132</v>
@@ -676,13 +676,13 @@
         <v>45062</v>
       </c>
       <c r="B12" t="n">
-        <v>180.1468036988785</v>
+        <v>180.1468036989121</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.9522704576077454</v>
+        <v>5.426890021796872</v>
       </c>
       <c r="D12" t="n">
-        <v>354.3047897803948</v>
+        <v>353.0679395087449</v>
       </c>
       <c r="E12" t="n">
         <v>156</v>
@@ -757,22 +757,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>64725.65431875919</v>
+        <v>64725.65431886134</v>
       </c>
       <c r="C2" t="n">
-        <v>254.4123706087406</v>
+        <v>254.4123706089414</v>
       </c>
       <c r="D2" t="n">
-        <v>254.4123706087406</v>
+        <v>254.4123706089414</v>
       </c>
       <c r="E2" t="n">
-        <v>21.20103088406172</v>
+        <v>21.20103088407845</v>
       </c>
       <c r="F2" t="n">
-        <v>21.20103088406172</v>
+        <v>21.20103088407845</v>
       </c>
       <c r="G2" t="n">
-        <v>1.827593867704049</v>
+        <v>1.827593867704173</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>70232.55144800623</v>
+        <v>70232.55144799317</v>
       </c>
       <c r="C3" t="n">
-        <v>265.0142476320966</v>
+        <v>265.014247632072</v>
       </c>
       <c r="D3" t="n">
-        <v>265.0142476320966</v>
+        <v>265.014247632072</v>
       </c>
       <c r="E3" t="n">
-        <v>1.299089449176944</v>
+        <v>1.299089449176823</v>
       </c>
       <c r="F3" t="n">
-        <v>1.299089449176944</v>
+        <v>1.299089449176823</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
@@ -809,22 +809,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>26220.58972180591</v>
+        <v>26220.58979661332</v>
       </c>
       <c r="C4" t="n">
-        <v>161.9277299347024</v>
+        <v>161.9277301656925</v>
       </c>
       <c r="D4" t="n">
-        <v>118.640981965595</v>
+        <v>118.6409821216229</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4589357956644031</v>
+        <v>0.4589357961463247</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4475682122640106</v>
+        <v>0.4475682122651866</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6040266623303516</v>
+        <v>0.6040266635440066</v>
       </c>
       <c r="H4" t="n">
         <v>0.7777777777777777</v>

--- a/modelos/OBAOLE4423099/OBAOLE4423099_Sell in_metricas.xlsx
+++ b/modelos/OBAOLE4423099/OBAOLE4423099_Sell in_metricas.xlsx
@@ -479,10 +479,10 @@
         <v>57.14982397220689</v>
       </c>
       <c r="C2" t="n">
-        <v>-123.3274065436729</v>
+        <v>-114.3300631543154</v>
       </c>
       <c r="D2" t="n">
-        <v>236.4910047009122</v>
+        <v>247.3141726192681</v>
       </c>
       <c r="E2" t="n">
         <v>144</v>
@@ -499,10 +499,10 @@
         <v>84.15556722366418</v>
       </c>
       <c r="C3" t="n">
-        <v>-83.02585014227573</v>
+        <v>-103.2692421628494</v>
       </c>
       <c r="D3" t="n">
-        <v>257.7982833050902</v>
+        <v>261.907146701771</v>
       </c>
       <c r="E3" t="n">
         <v>324</v>
@@ -519,10 +519,10 @@
         <v>153.2371055249814</v>
       </c>
       <c r="C4" t="n">
-        <v>-36.60400416119043</v>
+        <v>-34.4142025752927</v>
       </c>
       <c r="D4" t="n">
-        <v>339.837219077126</v>
+        <v>329.1457353053651</v>
       </c>
       <c r="E4" t="n">
         <v>276</v>
@@ -539,10 +539,10 @@
         <v>266.4123706089414</v>
       </c>
       <c r="C5" t="n">
-        <v>95.41669007390583</v>
+        <v>99.68410721996403</v>
       </c>
       <c r="D5" t="n">
-        <v>444.855736338369</v>
+        <v>453.9192183588761</v>
       </c>
       <c r="E5" t="n">
         <v>12</v>
@@ -559,10 +559,10 @@
         <v>121.5957298302757</v>
       </c>
       <c r="C6" t="n">
-        <v>-52.8787182917423</v>
+        <v>-53.97412175697064</v>
       </c>
       <c r="D6" t="n">
-        <v>297.1728201355234</v>
+        <v>303.9215787908611</v>
       </c>
       <c r="E6" t="n">
         <v>84</v>
@@ -579,10 +579,10 @@
         <v>105.3042745151044</v>
       </c>
       <c r="C7" t="n">
-        <v>-81.14118024634415</v>
+        <v>-68.30014710513274</v>
       </c>
       <c r="D7" t="n">
-        <v>290.0272787730559</v>
+        <v>270.6459181842063</v>
       </c>
       <c r="E7" t="n">
         <v>240</v>
@@ -599,10 +599,10 @@
         <v>131.1596952797788</v>
       </c>
       <c r="C8" t="n">
-        <v>-41.48372864185477</v>
+        <v>-37.90228684550865</v>
       </c>
       <c r="D8" t="n">
-        <v>303.1986204379137</v>
+        <v>309.8223317665385</v>
       </c>
       <c r="E8" t="n">
         <v>132</v>
@@ -619,10 +619,10 @@
         <v>-61.01424763207202</v>
       </c>
       <c r="C9" t="n">
-        <v>-228.1801076214142</v>
+        <v>-236.9289281250144</v>
       </c>
       <c r="D9" t="n">
-        <v>112.77203006933</v>
+        <v>116.8853184897537</v>
       </c>
       <c r="E9" t="n">
         <v>204</v>
@@ -639,10 +639,10 @@
         <v>128.0694266912078</v>
       </c>
       <c r="C10" t="n">
-        <v>-41.24162751216043</v>
+        <v>-59.05714230218105</v>
       </c>
       <c r="D10" t="n">
-        <v>299.1481655424417</v>
+        <v>304.9572697447689</v>
       </c>
       <c r="E10" t="n">
         <v>492</v>
@@ -659,10 +659,10 @@
         <v>189.1021987723613</v>
       </c>
       <c r="C11" t="n">
-        <v>11.01817026473636</v>
+        <v>1.033684048745896</v>
       </c>
       <c r="D11" t="n">
-        <v>376.1672388540142</v>
+        <v>358.5990335318858</v>
       </c>
       <c r="E11" t="n">
         <v>132</v>
@@ -679,10 +679,10 @@
         <v>180.1468036989121</v>
       </c>
       <c r="C12" t="n">
-        <v>5.426890021796872</v>
+        <v>10.51200324368667</v>
       </c>
       <c r="D12" t="n">
-        <v>353.0679395087449</v>
+        <v>368.2469717918734</v>
       </c>
       <c r="E12" t="n">
         <v>156</v>
